--- a/psidis/expdata/20000.xlsx
+++ b/psidis/expdata/20000.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobethier/Documents/fitpack/database/psidis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/fitpack2/database/psidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9B20C9-BEA4-C94A-BE2B-F93726DB6A43}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B207CC90-D997-ED49-9377-BD6E15B133CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="6880" windowWidth="24560" windowHeight="13180" tabRatio="979" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="520" windowWidth="16400" windowHeight="10280" tabRatio="979" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="15">
   <si>
     <t>X</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>SMC</t>
+  </si>
+  <si>
+    <t>zmin</t>
+  </si>
+  <si>
+    <t>zmax</t>
   </si>
 </sst>
 </file>
@@ -475,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,7 +492,7 @@
     <col min="1" max="8" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,8 +520,14 @@
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -543,8 +555,14 @@
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>0.2</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
@@ -572,8 +590,14 @@
       <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>0.2</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1.4E-2</v>
       </c>
@@ -601,8 +625,14 @@
       <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>0.2</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -630,8 +660,14 @@
       <c r="I5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>0.2</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -659,8 +695,14 @@
       <c r="I6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>0.2</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4.9000000000000002E-2</v>
       </c>
@@ -688,8 +730,14 @@
       <c r="I7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>0.2</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7.6999999999999999E-2</v>
       </c>
@@ -717,8 +765,14 @@
       <c r="I8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>0.2</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0.122</v>
       </c>
@@ -746,8 +800,14 @@
       <c r="I9" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>0.2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0.17299999999999999</v>
       </c>
@@ -775,8 +835,14 @@
       <c r="I10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>0.2</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0.24199999999999999</v>
       </c>
@@ -804,8 +870,14 @@
       <c r="I11" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>0.2</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0.34200000000000003</v>
       </c>
@@ -833,8 +905,14 @@
       <c r="I12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>0.2</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0.48</v>
       </c>
@@ -861,6 +939,12 @@
       </c>
       <c r="I13" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="J13">
+        <v>0.2</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/psidis/expdata/20000.xlsx
+++ b/psidis/expdata/20000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/fitpack2/database/psidis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/JAM Database/psidis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B207CC90-D997-ED49-9377-BD6E15B133CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1BB6892-548B-274D-927E-72A8B94663DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="520" windowWidth="16400" windowHeight="10280" tabRatio="979" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33620" yWindow="3820" windowWidth="30720" windowHeight="17040" tabRatio="979" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>hadron</t>
   </si>
   <si>
-    <t>proton</t>
-  </si>
-  <si>
     <t>h+</t>
   </si>
   <si>
@@ -70,13 +67,16 @@
   </si>
   <si>
     <t>zmax</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -99,6 +99,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,9 +136,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -484,7 +494,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,38 +503,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -544,16 +554,16 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2">
         <v>0.2</v>
@@ -579,16 +589,16 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3">
         <v>0.2</v>
@@ -614,16 +624,16 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4">
         <v>0.2</v>
@@ -649,16 +659,16 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5">
         <v>0.2</v>
@@ -684,16 +694,16 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6">
         <v>0.2</v>
@@ -719,16 +729,16 @@
         <v>0.01</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7">
         <v>0.2</v>
@@ -754,16 +764,16 @@
         <v>1.6E-2</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8">
         <v>0.2</v>
@@ -789,16 +799,16 @@
         <v>2.7E-2</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9">
         <v>0.2</v>
@@ -824,16 +834,16 @@
         <v>0.02</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10">
         <v>0.2</v>
@@ -859,16 +869,16 @@
         <v>0.03</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11">
         <v>0.2</v>
@@ -894,16 +904,16 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12">
         <v>0.2</v>
@@ -929,16 +939,16 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13">
         <v>0.2</v>
